--- a/input.xlsx
+++ b/input.xlsx
@@ -16,9 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>64697-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">День добрый! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ниже введите по каким критериям  </t>
+  </si>
+  <si>
+    <t>вы хотите отфильтровать данные:</t>
+  </si>
+  <si>
+    <t>Начиная с какого года?  Ответ введите в соседнюю ячейку -&gt;</t>
+  </si>
+  <si>
+    <t>Заканчивая каким годом? Ответ введите в соседнюю ячейку -&gt;</t>
+  </si>
+  <si>
+    <t>*если вам нужны данные за один год, то оставьте эту ячейку пустой*</t>
+  </si>
+  <si>
+    <t>С каким регистрационным номером?  Ответ введите в соседнюю ячейку -&gt;</t>
+  </si>
+  <si>
+    <t>*вводить номер в формате 00000-00*</t>
+  </si>
+  <si>
+    <t>Перед запуском программы обязательно сохраните файл!</t>
   </si>
 </sst>
 </file>
@@ -366,28 +393,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>2018</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -24,12 +24,6 @@
     <t xml:space="preserve">День добрый! </t>
   </si>
   <si>
-    <t xml:space="preserve">Ниже введите по каким критериям  </t>
-  </si>
-  <si>
-    <t>вы хотите отфильтровать данные:</t>
-  </si>
-  <si>
     <t>Начиная с какого года?  Ответ введите в соседнюю ячейку -&gt;</t>
   </si>
   <si>
@@ -46,13 +40,19 @@
   </si>
   <si>
     <t>Перед запуском программы обязательно сохраните файл!</t>
+  </si>
+  <si>
+    <t>Ниже введите по каким критериям  вы хотите отфильтровать данные:</t>
+  </si>
+  <si>
+    <t>Данная система предназначена на удобного поиска и сбора данных на сайте "РСТ Метрология"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,45 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,11 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -393,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,59 +442,115 @@
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
